--- a/data/hotels_by_city/Houston/Houston_shard_527.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_527.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="277">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d107776-Reviews-Quality_Suites_North-Houston_Texas.html</t>
   </si>
   <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>265</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Quality-Suites-North.h84584.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,707 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107776-r504047118-Quality_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>107776</t>
+  </si>
+  <si>
+    <t>504047118</t>
+  </si>
+  <si>
+    <t>07/20/2017</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>This was an excellent hotel for the price. The room was spacious, clean &amp; quiet. Refrigerator &amp; microwave in the room. Close to shopping centers &amp; freeways. There's also a gym &amp; complementary breakfast. Breakfast was very basic, but no complaints for the price. Overall, everything was great. I'll deffinetly be back.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107776-r480721546-Quality_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>480721546</t>
+  </si>
+  <si>
+    <t>05/01/2017</t>
+  </si>
+  <si>
+    <t>It was ok</t>
+  </si>
+  <si>
+    <t>It was ok. Clean except the blanket we had, had blood on it and urine stain. So we called front desk she said put it by the door and she would get it she brought another blanket up and when I went to hand her the other one she acted scared of it. And said I will get it later I have other customers. The new blanket she have us had 2 hugh holes in it. The next morning we were woke up at 9 am from housekeeping. This has become a problem with this chain lately. I would advise asking them to not wake people up so early. The blanket was still by the door the next day. If she was so scared to touch it how did she think we felt with it on our bed?MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>It was ok. Clean except the blanket we had, had blood on it and urine stain. So we called front desk she said put it by the door and she would get it she brought another blanket up and when I went to hand her the other one she acted scared of it. And said I will get it later I have other customers. The new blanket she have us had 2 hugh holes in it. The next morning we were woke up at 9 am from housekeeping. This has become a problem with this chain lately. I would advise asking them to not wake people up so early. The blanket was still by the door the next day. If she was so scared to touch it how did she think we felt with it on our bed?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107776-r468642807-Quality_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>468642807</t>
+  </si>
+  <si>
+    <t>03/19/2017</t>
+  </si>
+  <si>
+    <t>Don't stay here!!!</t>
+  </si>
+  <si>
+    <t>Choice hotels...... Don't choose here!!!!  Smelly rooms, smell of marijuana inside, employees smoking in non smoking areas....  And get this I was having a discussion in the lobby, and I guess it interfered with the worker behind the desk because she turned up the volume on the television!!!</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107776-r457590895-Quality_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>457590895</t>
+  </si>
+  <si>
+    <t>02/06/2017</t>
+  </si>
+  <si>
+    <t>Excellent for airport stay</t>
+  </si>
+  <si>
+    <t>This was perfect for my one night stay near Houston airport (IAH). About 19 min away from airport, driving myself. Large room with private sitting area, with a kind of  "unkempt" sofa.  clean bed sheets and covers, nice lighting with a unique sealing fan. Bathroom was clean with  enough towels, a little old though. These minor pitfalls did not affect my pleasant stay. My room was on first floor with a window facing the pool, the pool looked very clean with whirlpool, which was working even at my late checkin hours, after 9PM. Free wifi, accessible parking, and also free breakfast starts at 6AM, I checked out prior to breakfast. All is excellent for the price and star rating. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>This was perfect for my one night stay near Houston airport (IAH). About 19 min away from airport, driving myself. Large room with private sitting area, with a kind of  "unkempt" sofa.  clean bed sheets and covers, nice lighting with a unique sealing fan. Bathroom was clean with  enough towels, a little old though. These minor pitfalls did not affect my pleasant stay. My room was on first floor with a window facing the pool, the pool looked very clean with whirlpool, which was working even at my late checkin hours, after 9PM. Free wifi, accessible parking, and also free breakfast starts at 6AM, I checked out prior to breakfast. All is excellent for the price and star rating. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107776-r453997090-Quality_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>453997090</t>
+  </si>
+  <si>
+    <t>01/22/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best deal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed during the thanksgiving holiday for the weekend. No complaints,  place is very pleasant,  clean , beds are comfortable, front desk staff was very courteous at check in. Breakfast was also pretty good , for the price I didn't expect much however I am happy to say I was pleasantly sorprised. Would definitely return and recommend to family and friends for short stays. </t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107776-r442194889-Quality_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>442194889</t>
+  </si>
+  <si>
+    <t>12/05/2016</t>
+  </si>
+  <si>
+    <t>Our stay in this hotel was excellent!</t>
+  </si>
+  <si>
+    <t>Our stay in this hotel was excellent! The price was really low, the hot breakfast includes sausage and eggs, toast, bagels, yogurt, and fresh fruit. There was even a church service in the hotel conference room on Sunday morning. The room was clean and comfortable, everything worked including the WiFi, and the desk clerk was very helpful. We really enjoyed staying here! Thank you!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107776-r385530393-Quality_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>385530393</t>
+  </si>
+  <si>
+    <t>06/24/2016</t>
+  </si>
+  <si>
+    <t>Great Hotel!</t>
+  </si>
+  <si>
+    <t>Great room, really clean definitely would stay here again! Maintenance guy and cleaning ladies were great as well!The only -Con I had was the Internet was cutting off all the time. But other than that it was great!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Quality Suites N, General Manager at Quality Suites North, responded to this reviewResponded June 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 27, 2016</t>
+  </si>
+  <si>
+    <t>Great room, really clean definitely would stay here again! Maintenance guy and cleaning ladies were great as well!The only -Con I had was the Internet was cutting off all the time. But other than that it was great!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107776-r362825360-Quality_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>362825360</t>
+  </si>
+  <si>
+    <t>04/09/2016</t>
+  </si>
+  <si>
+    <t>Thank Goodness for the staff!!!</t>
+  </si>
+  <si>
+    <t>A few coworkers and I were staying in this hotel for a work-related business trip. One of our employees left an extremely important package behind by accident that was quite valuable. She wouldn't have realized it was missing until she got home, which is very far (we don't live in Texas). It would have been very bad, but the staff at the hotel (the hotel maids and the man at the desk) turned it in and called our numbers, and we were able to recover it! The staff at this hotel has your back! MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Barry G, General Manager at Quality Suites North, responded to this reviewResponded June 27, 2016</t>
+  </si>
+  <si>
+    <t>A few coworkers and I were staying in this hotel for a work-related business trip. One of our employees left an extremely important package behind by accident that was quite valuable. She wouldn't have realized it was missing until she got home, which is very far (we don't live in Texas). It would have been very bad, but the staff at the hotel (the hotel maids and the man at the desk) turned it in and called our numbers, and we were able to recover it! The staff at this hotel has your back! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107776-r362623049-Quality_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>362623049</t>
+  </si>
+  <si>
+    <t>04/08/2016</t>
+  </si>
+  <si>
+    <t>Great place....great price</t>
+  </si>
+  <si>
+    <t>We were pleasantly surprised by this hotel.  It's very attractive and clean.  I loved the colors of our room and it was one of the largest rooms we've ever had in this price range.  I have absolutely no idea how another reviewer could possibly claim this hotel was a dump.  My husband and I have been in more hotels than we can count and this IS a nice hotel.  We would definitely rebook this.  The outside pool and jucuzzi is small but attractive and clean.  MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Barry G, General Manager at Quality Suites North, responded to this reviewResponded August 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 23, 2016</t>
+  </si>
+  <si>
+    <t>We were pleasantly surprised by this hotel.  It's very attractive and clean.  I loved the colors of our room and it was one of the largest rooms we've ever had in this price range.  I have absolutely no idea how another reviewer could possibly claim this hotel was a dump.  My husband and I have been in more hotels than we can count and this IS a nice hotel.  We would definitely rebook this.  The outside pool and jucuzzi is small but attractive and clean.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107776-r327118953-Quality_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>327118953</t>
+  </si>
+  <si>
+    <t>11/16/2015</t>
+  </si>
+  <si>
+    <t>Complete Dump!</t>
+  </si>
+  <si>
+    <t>I have stayed at many Quality Inns and this is by far the worst!!  Fold out bed looks like someone dumped a quart of grease on it, refrigerator has no temperature knob to adjust (broke off) and never kept anything that cold, shower floor was disgusting, and ironing board was filthy.  Every single ice machine is broke and when I asked the front desk she gave me a sandwich baggie with ice in it from the lobby fridge, about enough for one drink. It is close to the interstate in this area but its not within walking distance of anything else. For the about the same money you could find something else....MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Quality Suites N, Director of Sales at Quality Suites North, responded to this reviewResponded December 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 1, 2015</t>
+  </si>
+  <si>
+    <t>I have stayed at many Quality Inns and this is by far the worst!!  Fold out bed looks like someone dumped a quart of grease on it, refrigerator has no temperature knob to adjust (broke off) and never kept anything that cold, shower floor was disgusting, and ironing board was filthy.  Every single ice machine is broke and when I asked the front desk she gave me a sandwich baggie with ice in it from the lobby fridge, about enough for one drink. It is close to the interstate in this area but its not within walking distance of anything else. For the about the same money you could find something else....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107776-r324773733-Quality_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>324773733</t>
+  </si>
+  <si>
+    <t>11/05/2015</t>
+  </si>
+  <si>
+    <t>Quality Suites North, Houston Tx</t>
+  </si>
+  <si>
+    <t>We've been staying here since they opened and seen it go thru many changes over the years. We like that it's located a short distance from Bush International Airport, Old Town Spring, The Woodlands Mall and not too far from Houston. It's very easy to get to any of those locations from the hotel. The current staff of manager, Sam to the front desk people, Nancy, Felicia and Honder, all went above what was expected to make our stay pleasant. Nothing was over looked! I can't say enough good things about Sam and his staff! He's right on the ball keeping everything running smoothly. Our room was nice, clean and comfortable. We will be staying here again and would recommend it to anyone!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>We've been staying here since they opened and seen it go thru many changes over the years. We like that it's located a short distance from Bush International Airport, Old Town Spring, The Woodlands Mall and not too far from Houston. It's very easy to get to any of those locations from the hotel. The current staff of manager, Sam to the front desk people, Nancy, Felicia and Honder, all went above what was expected to make our stay pleasant. Nothing was over looked! I can't say enough good things about Sam and his staff! He's right on the ball keeping everything running smoothly. Our room was nice, clean and comfortable. We will be staying here again and would recommend it to anyone!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107776-r307353837-Quality_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>307353837</t>
+  </si>
+  <si>
+    <t>09/05/2015</t>
+  </si>
+  <si>
+    <t>Don't stay here</t>
+  </si>
+  <si>
+    <t>First room, toilet overflowed. Clerk gave us a plunger. When it didn't work, she tried to blame us. Second room, smelled like a combination of smoke and dog piss. Clerk tried to spray something to mask it. Third room was in need of repair but we were so tired at this point, just wanted to get some sleep. Left the room the next day @12:30 to check out the NASA Space Center and take in the Astros game. Upon our return, no one had cleaned our room. Had to get clean towels from the night clerk. When I checked out the next morning, I voiced my displeasure with the manager on duty.  When I told of our room not being cleaned, the clerk on duty said it was because our "do not disturb" sign was on the door. I told her it was absolutely not because I switched it myself when we left and also checked it when we arrived back, she said the sign was up and that's why it wasn't cleaned, virtually calling me a liar. I also asked for a discount for all of our trouble and was told they couldn't because I booked through Expedia not through them directly. I actually didn't book through Expedia but goseek.com. When I contacted goseek, they kindly credited me 20% but it didn't come from the hotel. 
+I am a rewards customer of Choice Hotels but will never book one...First room, toilet overflowed. Clerk gave us a plunger. When it didn't work, she tried to blame us. Second room, smelled like a combination of smoke and dog piss. Clerk tried to spray something to mask it. Third room was in need of repair but we were so tired at this point, just wanted to get some sleep. Left the room the next day @12:30 to check out the NASA Space Center and take in the Astros game. Upon our return, no one had cleaned our room. Had to get clean towels from the night clerk. When I checked out the next morning, I voiced my displeasure with the manager on duty.  When I told of our room not being cleaned, the clerk on duty said it was because our "do not disturb" sign was on the door. I told her it was absolutely not because I switched it myself when we left and also checked it when we arrived back, she said the sign was up and that's why it wasn't cleaned, virtually calling me a liar. I also asked for a discount for all of our trouble and was told they couldn't because I booked through Expedia not through them directly. I actually didn't book through Expedia but goseek.com. When I contacted goseek, they kindly credited me 20% but it didn't come from the hotel. I am a rewards customer of Choice Hotels but will never book one of their hotels again because of this one incident and how badly I was treated.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Quality Suites N, General Manager at Quality Suites North, responded to this reviewResponded September 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 7, 2015</t>
+  </si>
+  <si>
+    <t>First room, toilet overflowed. Clerk gave us a plunger. When it didn't work, she tried to blame us. Second room, smelled like a combination of smoke and dog piss. Clerk tried to spray something to mask it. Third room was in need of repair but we were so tired at this point, just wanted to get some sleep. Left the room the next day @12:30 to check out the NASA Space Center and take in the Astros game. Upon our return, no one had cleaned our room. Had to get clean towels from the night clerk. When I checked out the next morning, I voiced my displeasure with the manager on duty.  When I told of our room not being cleaned, the clerk on duty said it was because our "do not disturb" sign was on the door. I told her it was absolutely not because I switched it myself when we left and also checked it when we arrived back, she said the sign was up and that's why it wasn't cleaned, virtually calling me a liar. I also asked for a discount for all of our trouble and was told they couldn't because I booked through Expedia not through them directly. I actually didn't book through Expedia but goseek.com. When I contacted goseek, they kindly credited me 20% but it didn't come from the hotel. 
+I am a rewards customer of Choice Hotels but will never book one...First room, toilet overflowed. Clerk gave us a plunger. When it didn't work, she tried to blame us. Second room, smelled like a combination of smoke and dog piss. Clerk tried to spray something to mask it. Third room was in need of repair but we were so tired at this point, just wanted to get some sleep. Left the room the next day @12:30 to check out the NASA Space Center and take in the Astros game. Upon our return, no one had cleaned our room. Had to get clean towels from the night clerk. When I checked out the next morning, I voiced my displeasure with the manager on duty.  When I told of our room not being cleaned, the clerk on duty said it was because our "do not disturb" sign was on the door. I told her it was absolutely not because I switched it myself when we left and also checked it when we arrived back, she said the sign was up and that's why it wasn't cleaned, virtually calling me a liar. I also asked for a discount for all of our trouble and was told they couldn't because I booked through Expedia not through them directly. I actually didn't book through Expedia but goseek.com. When I contacted goseek, they kindly credited me 20% but it didn't come from the hotel. I am a rewards customer of Choice Hotels but will never book one of their hotels again because of this one incident and how badly I was treated.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107776-r283342627-Quality_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>283342627</t>
+  </si>
+  <si>
+    <t>06/27/2015</t>
+  </si>
+  <si>
+    <t>Ok visit.  Not great but fair.</t>
+  </si>
+  <si>
+    <t>We got checked in late after they locked the door at 2200.  The front desk lady was not the nicest in the world.  We stayed in room 112.  There was hard dog food on the floor that hadn't been cleaned up.  We could hear everything on the second floor as well.  I don't know if it was just noisy rude occupants or just normal foot traffic.  Either way it was annoying.  When I stay in this area again I will probably go somewhere else but if I had to stay here I would.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107776-r270819077-Quality_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>270819077</t>
+  </si>
+  <si>
+    <t>05/08/2015</t>
+  </si>
+  <si>
+    <t>Friendly staff and large clean rooms</t>
+  </si>
+  <si>
+    <t>Was in town for business and this location was a great rate and location for my needs.  Friendly staff and large, clean rooms were greatly appreciated.  Breakfast and workout areas are very small.  Breakfast has some basic offerings, but enough to get the day started.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107776-r250635292-Quality_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>250635292</t>
+  </si>
+  <si>
+    <t>01/23/2015</t>
+  </si>
+  <si>
+    <t>Thank you!</t>
+  </si>
+  <si>
+    <t>The staff and management at Quality Suites North made my business stay a pleasure. The price was reasonable and they bent over backwards to provide the shuttle service to the Falck training center. Veronica especially made my stay enjoible - thank you!</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107776-r208855438-Quality_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>208855438</t>
+  </si>
+  <si>
+    <t>06/04/2014</t>
+  </si>
+  <si>
+    <t>Staff Friendly and Helpful</t>
+  </si>
+  <si>
+    <t>Husband here for a week class.  We requested a higher floor and quiet room on arrival and the desk staff was responsive. The room is clean and has a living room seating area so is comfortable for me during the day. The staff is friendly and helpful. I was late for bkfst yesterday and was able to obtain one from the kind breakfast lady. The pool area is clean.The housekeeper is friendly and quickly provided the extras that I requested. The hotel is adjacent to I 45 and the I 45 service road, so restaurants et al are easily accessible and Spring and Woodlands an easy drive up the highway. The desk ladies know the restaurants well and offered us perfect suggestions.  The staff make this place a comfortable environment for a week stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Quality Suites N, Manager at Quality Suites North, responded to this reviewResponded July 25, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2014</t>
+  </si>
+  <si>
+    <t>Husband here for a week class.  We requested a higher floor and quiet room on arrival and the desk staff was responsive. The room is clean and has a living room seating area so is comfortable for me during the day. The staff is friendly and helpful. I was late for bkfst yesterday and was able to obtain one from the kind breakfast lady. The pool area is clean.The housekeeper is friendly and quickly provided the extras that I requested. The hotel is adjacent to I 45 and the I 45 service road, so restaurants et al are easily accessible and Spring and Woodlands an easy drive up the highway. The desk ladies know the restaurants well and offered us perfect suggestions.  The staff make this place a comfortable environment for a week stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107776-r206098104-Quality_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>206098104</t>
+  </si>
+  <si>
+    <t>05/18/2014</t>
+  </si>
+  <si>
+    <t>Not Getting Off to a Good Start</t>
+  </si>
+  <si>
+    <t>Hair in the sheets, housekeeping is gone as of 4pm so the front desk clerk brought us sheets to change our own bed. Cigarette butts are all over the pool area because no ash trays are provided. Not getting off to a good start - our 4 day stay may be cut short.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Quality Suites N, Manager at Quality Suites North, responded to this reviewResponded May 27, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 27, 2014</t>
+  </si>
+  <si>
+    <t>Hair in the sheets, housekeeping is gone as of 4pm so the front desk clerk brought us sheets to change our own bed. Cigarette butts are all over the pool area because no ash trays are provided. Not getting off to a good start - our 4 day stay may be cut short.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107776-r205145348-Quality_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>205145348</t>
+  </si>
+  <si>
+    <t>05/11/2014</t>
+  </si>
+  <si>
+    <t>A Great 2nd Choice</t>
+  </si>
+  <si>
+    <t>Stayed here for one night when we were up in the Spring, TX area to buy a new vehicle.  What we liked about this hotel was  the room was spacious and very clean.  Another plus is it has easy access to Interstate 45 from this location.  If our usual hotel in Houston is booked we would have no problem with this being our next choice.  The property is gated with sufficient parking.  When we stayed here there was some maintenance being done in the area by the power company which affected this hotel.  The hotel had information about this posted on every door making the patrons aware of the issue.  Since it was the start of a weekend we didn't have an issue with that.Besides the room being clean it really smelled really nice.  The continental breakfast was good with sufficient hours to cover the late sleepers.  Check-in and out was a snap and the attention to detail was a very welcome addition.  I cannot remember if the couch was a pull-out.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Stayed here for one night when we were up in the Spring, TX area to buy a new vehicle.  What we liked about this hotel was  the room was spacious and very clean.  Another plus is it has easy access to Interstate 45 from this location.  If our usual hotel in Houston is booked we would have no problem with this being our next choice.  The property is gated with sufficient parking.  When we stayed here there was some maintenance being done in the area by the power company which affected this hotel.  The hotel had information about this posted on every door making the patrons aware of the issue.  Since it was the start of a weekend we didn't have an issue with that.Besides the room being clean it really smelled really nice.  The continental breakfast was good with sufficient hours to cover the late sleepers.  Check-in and out was a snap and the attention to detail was a very welcome addition.  I cannot remember if the couch was a pull-out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107776-r197225820-Quality_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>197225820</t>
+  </si>
+  <si>
+    <t>03/12/2014</t>
+  </si>
+  <si>
+    <t>Kind staff, noisy neighbors</t>
+  </si>
+  <si>
+    <t>In general, hotel staff was super nice and helpful. Good value for your money. People in the neighboring room were loud, watching TV during night and talking/laughing. Room was nice, clean and specious.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>Quality Suites N, Manager at Quality Suites North, responded to this reviewResponded March 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 14, 2014</t>
+  </si>
+  <si>
+    <t>In general, hotel staff was super nice and helpful. Good value for your money. People in the neighboring room were loud, watching TV during night and talking/laughing. Room was nice, clean and specious.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107776-r195696905-Quality_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>195696905</t>
+  </si>
+  <si>
+    <t>02/28/2014</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Excellent service and very friendly staff. Very good accommodations. Couldn't ask for better. The locations is only minutes from other resteraunt sand shops. I would definetly do it again. It was like home away  from home. Great experience. Family friendly environment. Breakfast in the am and snacks in the afternoon.MoreShow less</t>
+  </si>
+  <si>
+    <t>Quality Suites N, Manager at Quality Suites North, responded to this reviewResponded March 12, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 12, 2014</t>
+  </si>
+  <si>
+    <t>Excellent service and very friendly staff. Very good accommodations. Couldn't ask for better. The locations is only minutes from other resteraunt sand shops. I would definetly do it again. It was like home away  from home. Great experience. Family friendly environment. Breakfast in the am and snacks in the afternoon.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107776-r170871333-Quality_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>170871333</t>
+  </si>
+  <si>
+    <t>08/05/2013</t>
+  </si>
+  <si>
+    <t>Loved this hotel!!</t>
+  </si>
+  <si>
+    <t>I stayed here with my husband while he was here for work. I spent the day in the hotel while he was away. The room is spacious and CLEAN! The beds are super comfy. The breakfast is alright, nothing spectacular, but there are a lot of restaurants close by. We got great service from the moment we walked in. Veronica, the woman at the desk, was very knowledgeable about restaurants and gave great directions and recommendations. I was flying out while my husband was at work and the front desk made arrangements for the cab for me. I would definitely recommend this hotel, and if we're ever back in Houston, I would stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here with my husband while he was here for work. I spent the day in the hotel while he was away. The room is spacious and CLEAN! The beds are super comfy. The breakfast is alright, nothing spectacular, but there are a lot of restaurants close by. We got great service from the moment we walked in. Veronica, the woman at the desk, was very knowledgeable about restaurants and gave great directions and recommendations. I was flying out while my husband was at work and the front desk made arrangements for the cab for me. I would definitely recommend this hotel, and if we're ever back in Houston, I would stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107776-r161575995-Quality_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>161575995</t>
+  </si>
+  <si>
+    <t>05/23/2013</t>
+  </si>
+  <si>
+    <t>Big room.  Average amenities</t>
+  </si>
+  <si>
+    <t>The room was large and quiet (despite being right on a freeway), with a good work desk and excellent wifi.  The bathroom, on the other hand, was clunky.  I reported a missing aerator on the sink faucet the first day, and by day three, it still wasn't fixed.  Had to play hide and seek with the water stream to rinse my toothbrush.  Bed was good.The free breakfast was mediocre - microwave eggs and sausage.  And the breakfast area was small - only seated about 20 people.</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107776-r157602710-Quality_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>157602710</t>
+  </si>
+  <si>
+    <t>04/13/2013</t>
+  </si>
+  <si>
+    <t>Home away from Home.</t>
+  </si>
+  <si>
+    <t>I'm not normally the type of person that writes reviews about my stays but after spending the week here I just have too because the staff was so excellent.  I was in the area for work and spent seven days at the facility.  The staff felt like family by the time I left.  I don't know how often a hotel becomes a "Home away from Home" for other people (its not common for me) but this establishment left me feeling this way.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107776-r152778460-Quality_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>152778460</t>
+  </si>
+  <si>
+    <t>02/22/2013</t>
+  </si>
+  <si>
+    <t>Houston Travelers</t>
+  </si>
+  <si>
+    <t>Very good place to stay for business travelers.  The rooms are kept very clean.  The TVs are new and a good wireless system is in operation.  This property has several types of good resturants nearby. The personnel were friendly and concerned about my comfort.</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107776-r147999821-Quality_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>147999821</t>
+  </si>
+  <si>
+    <t>12/24/2012</t>
+  </si>
+  <si>
+    <t>Business Trips</t>
+  </si>
+  <si>
+    <t>With multiple business trips to North Houston every year, this hotel is just what I needed.  It is always clean, and the staff if very friendly and helpful.  The location is very accessible to both 45 and 1960, and is a great value as well.  I would recommend this hotel for either business or pleasure.</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107776-r145667359-Quality_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>145667359</t>
+  </si>
+  <si>
+    <t>11/18/2012</t>
+  </si>
+  <si>
+    <t>Great place and convenient location</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel numerous times over the past 5 years. It is a great value, very clean, good breakfast, and great staff. When I am in Houston I have need to go to both downtown and the 1960-West area. Both are easily accessed from this hotel. Downtown is easily accessible on I-45 at the hotel's front door, or I more often take the convenient METRO express bus service from the Spring park and ride lot which is only 5 minutes from the hotel. The 1960-West area is very close to the hotel and easily accessed by car. I highly recommend this hotel.</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107776-r145482555-Quality_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>145482555</t>
+  </si>
+  <si>
+    <t>11/15/2012</t>
+  </si>
+  <si>
+    <t>Great place to stay.</t>
+  </si>
+  <si>
+    <t>I highly recommend this hotel. My husband  &amp; I travel a lot due to his line of work and have had a wide variety of experiences in hotels. This one is very clean,quiet and the staff is wonderful. Not just at the front desk. There is also easy access to many choices of restaurants and shopping.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107776-r143581347-Quality_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>143581347</t>
+  </si>
+  <si>
+    <t>10/23/2012</t>
+  </si>
+  <si>
+    <t>Don't Expect a Good Night's Sleep</t>
+  </si>
+  <si>
+    <t>While the hotel accommodations and location are ideal, the staff lacks manners and professionalism. The front desk needed my credit card for an authorization and instead of waiting until the morning to get it, the night auditor banged on my door at 11:40pm, waking me up from a dead sleep. I was in my pajamas and not clothed properly to receive a guest. I have never had this kind of incident before at a hotel and I'm fuming. I'm so upset I'm thinking about changing hotels. This is definitely not the "quality" I was expecting.</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107776-r138940406-Quality_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>138940406</t>
+  </si>
+  <si>
+    <t>08/30/2012</t>
+  </si>
+  <si>
+    <t>Has potential</t>
+  </si>
+  <si>
+    <t>The room was nice and clean,comfortable bed, breakfast was ok and facilities were well kept. I would have rated much higher however there were staff members that worked the desk that seemed very annoyed when confronted about problems. The internet for most of the Hotel went out. I called to ask if there was a problem and was treated very rudely and told everything was working fine and she was using it on her phone. She also lied upon calling me later to say it was my computer and said no one else complained when I know for a fact they did. The man who originally checked me in was helpful but the night team are just there breathing air.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>The room was nice and clean,comfortable bed, breakfast was ok and facilities were well kept. I would have rated much higher however there were staff members that worked the desk that seemed very annoyed when confronted about problems. The internet for most of the Hotel went out. I called to ask if there was a problem and was treated very rudely and told everything was working fine and she was using it on her phone. She also lied upon calling me later to say it was my computer and said no one else complained when I know for a fact they did. The man who originally checked me in was helpful but the night team are just there breathing air.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107776-r133901436-Quality_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>133901436</t>
+  </si>
+  <si>
+    <t>07/09/2012</t>
+  </si>
+  <si>
+    <t>Great Hotel, Mediocre Breakfast</t>
+  </si>
+  <si>
+    <t>Our check-in was quick and the employees very courteous.  Our room was immaculate and extremely comfortable.   Our bed was one of the most comfortable I've slept in.  In fact, my husband said that was the best night's sleep he had gotten in a very long time.  An information card beside the bed said the sheets were 200 thread count- but they were much more luxurious than some 500 thread count sheets that we have on our bed at home.  The hotel was very quiet.  Breakfast the next morning consisted yogurt, two kinds of cereal, make your own waffles, a few pastries and stuff to make a sausage/egg biscuit.  I don't know about the quality of those- since there weren't anymore biscuits.  I was disappointed with the food since other hotels we've stayed at in this chain had a bit better breakfasts.  However, we were there for the room and it was above and beyond our expectations- so I can't really dock anything for the food.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>Our check-in was quick and the employees very courteous.  Our room was immaculate and extremely comfortable.   Our bed was one of the most comfortable I've slept in.  In fact, my husband said that was the best night's sleep he had gotten in a very long time.  An information card beside the bed said the sheets were 200 thread count- but they were much more luxurious than some 500 thread count sheets that we have on our bed at home.  The hotel was very quiet.  Breakfast the next morning consisted yogurt, two kinds of cereal, make your own waffles, a few pastries and stuff to make a sausage/egg biscuit.  I don't know about the quality of those- since there weren't anymore biscuits.  I was disappointed with the food since other hotels we've stayed at in this chain had a bit better breakfasts.  However, we were there for the room and it was above and beyond our expectations- so I can't really dock anything for the food.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107776-r72716303-Quality_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>72716303</t>
+  </si>
+  <si>
+    <t>07/28/2010</t>
+  </si>
+  <si>
+    <t>Best Deal in North Houston</t>
+  </si>
+  <si>
+    <t>This place is the best deal in North Houston!  Easy to get to right off I-45. The rooms are very spacious and have been updated. Great staff!!  Very friendly and helpful. Lots of restaurants nearby. Plenty of hot water for showering. The breakfast area is very small. And the breakfast selection is pretty limited. But I'm not a big breakfast eater so that didn't bother me. The neighborhood is not the best but they have lots of lighting and security cameras everywhere. Great place to stay!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107776-r50450063-Quality_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>50450063</t>
+  </si>
+  <si>
+    <t>12/01/2009</t>
+  </si>
+  <si>
+    <t>Great Rooms, Very Friendly Staff</t>
+  </si>
+  <si>
+    <t>We stayed at the hotel Thanksgiving Weekend. The rooms were large and were very comfortable. A young family owns and runs the property and were very pleasant and took care of all our needs. The breakfast area was a little small. July 4th weekend we stayed at the La Quinta on FM1960 and the staff at the La Quinta were not friendly and the rooms were not like the comfort suites.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107776-r39112370-Quality_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>39112370</t>
+  </si>
+  <si>
+    <t>08/28/2009</t>
+  </si>
+  <si>
+    <t>OK for quick trip...</t>
+  </si>
+  <si>
+    <t>If you want to go to a place just for business and want a quick in and out this is it. Good parking. Neighborhood is OK but a Motel 6 is next door separated by a high fence.Centrally located at 1960 and I-45.. I have been here several times. An older hotel in the chain. Well lit at night even in the back. Breakfast is bad. Microwaved food or waffles. Some fruit. Coffee is OK several choices here.Hot water for oatmeal. Spacious rooms. Renovated. No plasma TVs yet. Outside of hotel looks at little run down.Nice people at the front desk. Late checkout is possible.Small pool only.  You can order out for Chinese or some pizza from local places that have menus in the room.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2009</t>
+  </si>
+  <si>
+    <t>If you want to go to a place just for business and want a quick in and out this is it. Good parking. Neighborhood is OK but a Motel 6 is next door separated by a high fence.Centrally located at 1960 and I-45.. I have been here several times. An older hotel in the chain. Well lit at night even in the back. Breakfast is bad. Microwaved food or waffles. Some fruit. Coffee is OK several choices here.Hot water for oatmeal. Spacious rooms. Renovated. No plasma TVs yet. Outside of hotel looks at little run down.Nice people at the front desk. Late checkout is possible.Small pool only.  You can order out for Chinese or some pizza from local places that have menus in the room.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1242,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1274,2206 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>36197</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>36197</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>36197</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
+        <v>60</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>2</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>36197</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>36197</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>36197</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>81</v>
+      </c>
+      <c r="O7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>36197</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8" t="s">
+        <v>93</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>94</v>
+      </c>
+      <c r="X8" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>36197</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" t="s">
+        <v>100</v>
+      </c>
+      <c r="L9" t="s">
+        <v>101</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>102</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>103</v>
+      </c>
+      <c r="X9" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>36197</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" t="s">
+        <v>108</v>
+      </c>
+      <c r="L10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>102</v>
+      </c>
+      <c r="O10" t="s">
+        <v>110</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>111</v>
+      </c>
+      <c r="X10" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>36197</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>115</v>
+      </c>
+      <c r="J11" t="s">
+        <v>116</v>
+      </c>
+      <c r="K11" t="s">
+        <v>117</v>
+      </c>
+      <c r="L11" t="s">
+        <v>118</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>119</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>120</v>
+      </c>
+      <c r="X11" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>36197</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>124</v>
+      </c>
+      <c r="J12" t="s">
+        <v>125</v>
+      </c>
+      <c r="K12" t="s">
+        <v>126</v>
+      </c>
+      <c r="L12" t="s">
+        <v>127</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>128</v>
+      </c>
+      <c r="O12" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>36197</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>131</v>
+      </c>
+      <c r="J13" t="s">
+        <v>132</v>
+      </c>
+      <c r="K13" t="s">
+        <v>133</v>
+      </c>
+      <c r="L13" t="s">
+        <v>134</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>135</v>
+      </c>
+      <c r="O13" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>136</v>
+      </c>
+      <c r="X13" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>36197</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>140</v>
+      </c>
+      <c r="J14" t="s">
+        <v>141</v>
+      </c>
+      <c r="K14" t="s">
+        <v>142</v>
+      </c>
+      <c r="L14" t="s">
+        <v>143</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>144</v>
+      </c>
+      <c r="O14" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>36197</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>145</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>146</v>
+      </c>
+      <c r="J15" t="s">
+        <v>147</v>
+      </c>
+      <c r="K15" t="s">
+        <v>148</v>
+      </c>
+      <c r="L15" t="s">
+        <v>149</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>150</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>36197</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>151</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>152</v>
+      </c>
+      <c r="J16" t="s">
+        <v>153</v>
+      </c>
+      <c r="K16" t="s">
+        <v>154</v>
+      </c>
+      <c r="L16" t="s">
+        <v>155</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>156</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>36197</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>157</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>158</v>
+      </c>
+      <c r="J17" t="s">
+        <v>159</v>
+      </c>
+      <c r="K17" t="s">
+        <v>160</v>
+      </c>
+      <c r="L17" t="s">
+        <v>161</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>162</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>163</v>
+      </c>
+      <c r="X17" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>36197</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>166</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>167</v>
+      </c>
+      <c r="J18" t="s">
+        <v>168</v>
+      </c>
+      <c r="K18" t="s">
+        <v>169</v>
+      </c>
+      <c r="L18" t="s">
+        <v>170</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>171</v>
+      </c>
+      <c r="O18" t="s">
+        <v>110</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>172</v>
+      </c>
+      <c r="X18" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>36197</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>175</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>176</v>
+      </c>
+      <c r="J19" t="s">
+        <v>177</v>
+      </c>
+      <c r="K19" t="s">
+        <v>178</v>
+      </c>
+      <c r="L19" t="s">
+        <v>179</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>180</v>
+      </c>
+      <c r="O19" t="s">
+        <v>60</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>172</v>
+      </c>
+      <c r="X19" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>36197</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>182</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>183</v>
+      </c>
+      <c r="J20" t="s">
+        <v>184</v>
+      </c>
+      <c r="K20" t="s">
+        <v>185</v>
+      </c>
+      <c r="L20" t="s">
+        <v>186</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>187</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>188</v>
+      </c>
+      <c r="X20" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>36197</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>191</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>192</v>
+      </c>
+      <c r="J21" t="s">
+        <v>193</v>
+      </c>
+      <c r="K21" t="s">
+        <v>194</v>
+      </c>
+      <c r="L21" t="s">
+        <v>195</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>196</v>
+      </c>
+      <c r="X21" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>36197</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>199</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>200</v>
+      </c>
+      <c r="J22" t="s">
+        <v>201</v>
+      </c>
+      <c r="K22" t="s">
+        <v>202</v>
+      </c>
+      <c r="L22" t="s">
+        <v>203</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>180</v>
+      </c>
+      <c r="O22" t="s">
+        <v>110</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>196</v>
+      </c>
+      <c r="X22" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>36197</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>205</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>206</v>
+      </c>
+      <c r="J23" t="s">
+        <v>207</v>
+      </c>
+      <c r="K23" t="s">
+        <v>208</v>
+      </c>
+      <c r="L23" t="s">
+        <v>209</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>210</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>36197</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>211</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>212</v>
+      </c>
+      <c r="J24" t="s">
+        <v>213</v>
+      </c>
+      <c r="K24" t="s">
+        <v>214</v>
+      </c>
+      <c r="L24" t="s">
+        <v>215</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>216</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>36197</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>217</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>218</v>
+      </c>
+      <c r="J25" t="s">
+        <v>219</v>
+      </c>
+      <c r="K25" t="s">
+        <v>220</v>
+      </c>
+      <c r="L25" t="s">
+        <v>221</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>222</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>36197</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>223</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>224</v>
+      </c>
+      <c r="J26" t="s">
+        <v>225</v>
+      </c>
+      <c r="K26" t="s">
+        <v>226</v>
+      </c>
+      <c r="L26" t="s">
+        <v>227</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>228</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>36197</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>229</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>230</v>
+      </c>
+      <c r="J27" t="s">
+        <v>231</v>
+      </c>
+      <c r="K27" t="s">
+        <v>232</v>
+      </c>
+      <c r="L27" t="s">
+        <v>233</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>234</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>36197</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>235</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>236</v>
+      </c>
+      <c r="J28" t="s">
+        <v>237</v>
+      </c>
+      <c r="K28" t="s">
+        <v>238</v>
+      </c>
+      <c r="L28" t="s">
+        <v>239</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>234</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>36197</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>240</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>241</v>
+      </c>
+      <c r="J29" t="s">
+        <v>242</v>
+      </c>
+      <c r="K29" t="s">
+        <v>243</v>
+      </c>
+      <c r="L29" t="s">
+        <v>244</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>245</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>36197</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>246</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>247</v>
+      </c>
+      <c r="J30" t="s">
+        <v>248</v>
+      </c>
+      <c r="K30" t="s">
+        <v>249</v>
+      </c>
+      <c r="L30" t="s">
+        <v>250</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>251</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>36197</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>253</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>254</v>
+      </c>
+      <c r="J31" t="s">
+        <v>255</v>
+      </c>
+      <c r="K31" t="s">
+        <v>256</v>
+      </c>
+      <c r="L31" t="s">
+        <v>257</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>258</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>36197</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>260</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>261</v>
+      </c>
+      <c r="J32" t="s">
+        <v>262</v>
+      </c>
+      <c r="K32" t="s">
+        <v>263</v>
+      </c>
+      <c r="L32" t="s">
+        <v>264</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>36197</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>265</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>266</v>
+      </c>
+      <c r="J33" t="s">
+        <v>267</v>
+      </c>
+      <c r="K33" t="s">
+        <v>268</v>
+      </c>
+      <c r="L33" t="s">
+        <v>269</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>36197</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>270</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>271</v>
+      </c>
+      <c r="J34" t="s">
+        <v>272</v>
+      </c>
+      <c r="K34" t="s">
+        <v>273</v>
+      </c>
+      <c r="L34" t="s">
+        <v>274</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>275</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>276</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_527.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_527.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="422">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,70 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/12/2018</t>
+    <t>09/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107776-r587290614-Quality_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>107776</t>
+  </si>
+  <si>
+    <t>587290614</t>
+  </si>
+  <si>
+    <t>06/13/2018</t>
+  </si>
+  <si>
+    <t>Worst hotel I ever ALMOST Stayed in</t>
+  </si>
+  <si>
+    <t>From the drive up I knew it was going to be horrible, the landscaping was dead and the first view you saw was the pool which was I kid you not horrific the pictures don’t even do it justice because it was 10 times more disgusting than they look. It looked like grape Kool-Aid and some stench and dead fish or in the spa there were chairs at the bottom of the pool leaves and branches and water it’s self was green and you couldn’t even see to the bottom. That was before I even walked into the hotel. Never even wanted to check into a room, wanted to speak to the manager and she would not speak to me she made the poor young man named Craig help me. Obviously I canceled my booking and contacted the main number for the quality suites and they were able to get me into a sister property which was phenomenal. 
+The eating area was so small, the pictures are so deceiving… They were still trying to clean up breakfast and this was after almost 11 AM. Breakfast was over at 9:30 AM absolutely disgusting do not stay here. I’ve stayed in hotels all over the world and I thought the worst was in Norfork and at least I was able to stay there overnight and then leave… This one I could not even stay for a couple of hours.
+Stay at the...From the drive up I knew it was going to be horrible, the landscaping was dead and the first view you saw was the pool which was I kid you not horrific the pictures don’t even do it justice because it was 10 times more disgusting than they look. It looked like grape Kool-Aid and some stench and dead fish or in the spa there were chairs at the bottom of the pool leaves and branches and water it’s self was green and you couldn’t even see to the bottom. That was before I even walked into the hotel. Never even wanted to check into a room, wanted to speak to the manager and she would not speak to me she made the poor young man named Craig help me. Obviously I canceled my booking and contacted the main number for the quality suites and they were able to get me into a sister property which was phenomenal. The eating area was so small, the pictures are so deceiving… They were still trying to clean up breakfast and this was after almost 11 AM. Breakfast was over at 9:30 AM absolutely disgusting do not stay here. I’ve stayed in hotels all over the world and I thought the worst was in Norfork and at least I was able to stay there overnight and then leave… This one I could not even stay for a couple of hours.Stay at the Comfort Inn and suites it is on I 45 but a little bit off so you don’t hear the noise and it is brand new! Only about six or seven minutes away from this rotten stinking hole in the ground. I would never in a good conscience ever recommend this place. This manager is beyond reproach did give one rats behind of my concern and only said oh the pools open you can swim in the pool… Mind you it’s 95° in Houston and I was down there for very heartbreaking event, I wanted to place to come down and relax after having a very long day. Also I wanted a nice place to stay with my family member who I would only be able to see once every so many years. There were chairs in the pool at the bottom of the pool... leaves and discussed that I can’t even explain to you the smell. From the pool area and this lady told us it was open. Health department needs to be called disgusting… Blamed it on the storm, yet I had called the night before to make sure that the pool was open and the gentleman told me no it had been closed and the maintenance people are working on it and it was probably going to be drained… Obviously this manager did not want to bother with the expense of actually cleaning it properly. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Veronica G, General Manager at Quality Suites North, responded to this reviewResponded June 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 15, 2018</t>
+  </si>
+  <si>
+    <t>From the drive up I knew it was going to be horrible, the landscaping was dead and the first view you saw was the pool which was I kid you not horrific the pictures don’t even do it justice because it was 10 times more disgusting than they look. It looked like grape Kool-Aid and some stench and dead fish or in the spa there were chairs at the bottom of the pool leaves and branches and water it’s self was green and you couldn’t even see to the bottom. That was before I even walked into the hotel. Never even wanted to check into a room, wanted to speak to the manager and she would not speak to me she made the poor young man named Craig help me. Obviously I canceled my booking and contacted the main number for the quality suites and they were able to get me into a sister property which was phenomenal. 
+The eating area was so small, the pictures are so deceiving… They were still trying to clean up breakfast and this was after almost 11 AM. Breakfast was over at 9:30 AM absolutely disgusting do not stay here. I’ve stayed in hotels all over the world and I thought the worst was in Norfork and at least I was able to stay there overnight and then leave… This one I could not even stay for a couple of hours.
+Stay at the...From the drive up I knew it was going to be horrible, the landscaping was dead and the first view you saw was the pool which was I kid you not horrific the pictures don’t even do it justice because it was 10 times more disgusting than they look. It looked like grape Kool-Aid and some stench and dead fish or in the spa there were chairs at the bottom of the pool leaves and branches and water it’s self was green and you couldn’t even see to the bottom. That was before I even walked into the hotel. Never even wanted to check into a room, wanted to speak to the manager and she would not speak to me she made the poor young man named Craig help me. Obviously I canceled my booking and contacted the main number for the quality suites and they were able to get me into a sister property which was phenomenal. The eating area was so small, the pictures are so deceiving… They were still trying to clean up breakfast and this was after almost 11 AM. Breakfast was over at 9:30 AM absolutely disgusting do not stay here. I’ve stayed in hotels all over the world and I thought the worst was in Norfork and at least I was able to stay there overnight and then leave… This one I could not even stay for a couple of hours.Stay at the Comfort Inn and suites it is on I 45 but a little bit off so you don’t hear the noise and it is brand new! Only about six or seven minutes away from this rotten stinking hole in the ground. I would never in a good conscience ever recommend this place. This manager is beyond reproach did give one rats behind of my concern and only said oh the pools open you can swim in the pool… Mind you it’s 95° in Houston and I was down there for very heartbreaking event, I wanted to place to come down and relax after having a very long day. Also I wanted a nice place to stay with my family member who I would only be able to see once every so many years. There were chairs in the pool at the bottom of the pool... leaves and discussed that I can’t even explain to you the smell. From the pool area and this lady told us it was open. Health department needs to be called disgusting… Blamed it on the storm, yet I had called the night before to make sure that the pool was open and the gentleman told me no it had been closed and the maintenance people are working on it and it was probably going to be drained… Obviously this manager did not want to bother with the expense of actually cleaning it properly. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107776-r528700043-Quality_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>528700043</t>
+  </si>
+  <si>
+    <t>10/01/2017</t>
+  </si>
+  <si>
+    <t>Flood Stay</t>
+  </si>
+  <si>
+    <t>We stayed here, close to our flooded home, while we got things organized. The motel isn't anything very fancy, but the good folks who work here were all so kind and accommodating to our needs. Flood victims were treated with the utmost respect, as were others who were just passing through. Barry, the main man behind everything here, is an angel. He even drove us to the car rental place when we couldn't figure out how to get there. We stayed for nearly three weeks, before we located a temporary apartment in which to live while our house is being put together.</t>
+  </si>
+  <si>
+    <t>August 2017</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107776-r504047118-Quality_Suites_North-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>107776</t>
-  </si>
-  <si>
     <t>504047118</t>
   </si>
   <si>
@@ -198,9 +250,6 @@
     <t>May 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>It was ok. Clean except the blanket we had, had blood on it and urine stain. So we called front desk she said put it by the door and she would get it she brought another blanket up and when I went to hand her the other one she acted scared of it. And said I will get it later I have other customers. The new blanket she have us had 2 hugh holes in it. The next morning we were woke up at 9 am from housekeeping. This has become a problem with this chain lately. I would advise asking them to not wake people up so early. The blanket was still by the door the next day. If she was so scared to touch it how did she think we felt with it on our bed?More</t>
   </si>
   <si>
@@ -222,6 +271,42 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107776-r468419711-Quality_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>468419711</t>
+  </si>
+  <si>
+    <t>03/18/2017</t>
+  </si>
+  <si>
+    <t>'Ol Love</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This use to be a good hotel but the number of bad employees out number the good ones.  The general manager is not screening his employees before they're hired.  They are not courteous, unwelcoming and filthy rooms.  Most of their guests are truck drivers so the rooms smell like feet and cigarette smoke.  I would not recommend this hotel until the staff AND management changes.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107776-r460340640-Quality_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>460340640</t>
+  </si>
+  <si>
+    <t>02/16/2017</t>
+  </si>
+  <si>
+    <t>Oops.  This is not Quality Suites Bush!</t>
+  </si>
+  <si>
+    <t>Stayed here by mistake!  We researched an economical hotel with a shuttle, near the airport for an early morning flight.  Clicked on the wrong button.  This hotel is called Quality Suites North and it is about 19 minutes' drive away from the airport and it has NO shuttle.  A cab will cost you $40 one way.  A paid shuttle will cost you about $18 one way.  We did not realize the error until we called for the free shuttle to get to Quality Suites Bush --  and found out we were booked in Quality Suites North by mistake.  Take care!</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107776-r457590895-Quality_Suites_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -237,9 +322,6 @@
     <t>This was perfect for my one night stay near Houston airport (IAH). About 19 min away from airport, driving myself. Large room with private sitting area, with a kind of  "unkempt" sofa.  clean bed sheets and covers, nice lighting with a unique sealing fan. Bathroom was clean with  enough towels, a little old though. These minor pitfalls did not affect my pleasant stay. My room was on first floor with a window facing the pool, the pool looked very clean with whirlpool, which was working even at my late checkin hours, after 9PM. Free wifi, accessible parking, and also free breakfast starts at 6AM, I checked out prior to breakfast. All is excellent for the price and star rating. MoreShow less</t>
   </si>
   <si>
-    <t>February 2017</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
@@ -279,6 +361,39 @@
     <t>Our stay in this hotel was excellent! The price was really low, the hot breakfast includes sausage and eggs, toast, bagels, yogurt, and fresh fruit. There was even a church service in the hotel conference room on Sunday morning. The room was clean and comfortable, everything worked including the WiFi, and the desk clerk was very helpful. We really enjoyed staying here! Thank you!</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107776-r421626318-Quality_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>421626318</t>
+  </si>
+  <si>
+    <t>09/23/2016</t>
+  </si>
+  <si>
+    <t>Great Value!, will stay there again when in Houston.</t>
+  </si>
+  <si>
+    <t>Friendly,Helpful Staff! Noticed that they offered fresh cookies &amp; cupcakes at the front desk  Lobby was  pretty and inviting. It featured a beautiful wrought iron staircase &amp; blue sky painted ceiling. Room was very clean and much larger than I expected.  We stayed there several days and enjoyed  quiet restful nights.  They had a great selection of items at the free breakfast. We will stay there again when visiting relatives in Houston.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107776-r416878518-Quality_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>416878518</t>
+  </si>
+  <si>
+    <t>09/10/2016</t>
+  </si>
+  <si>
+    <t>Great Value</t>
+  </si>
+  <si>
+    <t>The room was much larger than your average room. Had all the amenities that I needed. I enjoyed laying out by the pool very much the fountain outside is very relaxing. The breakfast area is a little small, but the quality of food is very good. Not a ton of options but what you need and very good taste. This hotel is very much worth the price that is paid. I will recommend this to others as I will be back myself also. The front desk is also very helpful and quick with anything that is needed.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107776-r385530393-Quality_Suites_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -348,9 +463,6 @@
     <t>We were pleasantly surprised by this hotel.  It's very attractive and clean.  I loved the colors of our room and it was one of the largest rooms we've ever had in this price range.  I have absolutely no idea how another reviewer could possibly claim this hotel was a dump.  My husband and I have been in more hotels than we can count and this IS a nice hotel.  We would definitely rebook this.  The outside pool and jucuzzi is small but attractive and clean.  MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Barry G, General Manager at Quality Suites North, responded to this reviewResponded August 23, 2016</t>
   </si>
   <si>
@@ -358,6 +470,48 @@
   </si>
   <si>
     <t>We were pleasantly surprised by this hotel.  It's very attractive and clean.  I loved the colors of our room and it was one of the largest rooms we've ever had in this price range.  I have absolutely no idea how another reviewer could possibly claim this hotel was a dump.  My husband and I have been in more hotels than we can count and this IS a nice hotel.  We would definitely rebook this.  The outside pool and jucuzzi is small but attractive and clean.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107776-r356432470-Quality_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>356432470</t>
+  </si>
+  <si>
+    <t>03/17/2016</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>No place is perfect,  but for the price,  this place is great. The staff was friendly,  the pool was clean,  the breakfast was good and the room was spacious and nice. It is convenient to the Woodlands and Old Town Spring. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>No place is perfect,  but for the price,  this place is great. The staff was friendly,  the pool was clean,  the breakfast was good and the room was spacious and nice. It is convenient to the Woodlands and Old Town Spring. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107776-r339240981-Quality_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>339240981</t>
+  </si>
+  <si>
+    <t>01/11/2016</t>
+  </si>
+  <si>
+    <t>Dog friendly, spacious</t>
+  </si>
+  <si>
+    <t>I checked in at the Quality Inn North during a cross country roadtrip and it was decent, dog friendly, and had really large and spacious rooms available for fairly cheap.  The one downside was that they only offered pet friendly rooms on the first floor and the walls were really thin so anything that happened in the room directly above I could easily hear which always drives me crazy.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>I checked in at the Quality Inn North during a cross country roadtrip and it was decent, dog friendly, and had really large and spacious rooms available for fairly cheap.  The one downside was that they only offered pet friendly rooms on the first floor and the walls were really thin so anything that happened in the room directly above I could easily hear which always drives me crazy.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107776-r327118953-Quality_Suites_North-Houston_Texas.html</t>
@@ -437,6 +591,60 @@
 I am a rewards customer of Choice Hotels but will never book one...First room, toilet overflowed. Clerk gave us a plunger. When it didn't work, she tried to blame us. Second room, smelled like a combination of smoke and dog piss. Clerk tried to spray something to mask it. Third room was in need of repair but we were so tired at this point, just wanted to get some sleep. Left the room the next day @12:30 to check out the NASA Space Center and take in the Astros game. Upon our return, no one had cleaned our room. Had to get clean towels from the night clerk. When I checked out the next morning, I voiced my displeasure with the manager on duty.  When I told of our room not being cleaned, the clerk on duty said it was because our "do not disturb" sign was on the door. I told her it was absolutely not because I switched it myself when we left and also checked it when we arrived back, she said the sign was up and that's why it wasn't cleaned, virtually calling me a liar. I also asked for a discount for all of our trouble and was told they couldn't because I booked through Expedia not through them directly. I actually didn't book through Expedia but goseek.com. When I contacted goseek, they kindly credited me 20% but it didn't come from the hotel. I am a rewards customer of Choice Hotels but will never book one of their hotels again because of this one incident and how badly I was treated.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107776-r287586517-Quality_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>287586517</t>
+  </si>
+  <si>
+    <t>07/10/2015</t>
+  </si>
+  <si>
+    <t>Customer service stinks!</t>
+  </si>
+  <si>
+    <t>We stayed for 7 days. We also had 5 kids with us, $1,150 later,we were told we had to check out and wait to see if they had any rooms for us to extend our stay. The fact we were paying in advance didn't matter. The manager wasn't available when I was talking to the girl at the desk. Went back upstairs and called down to speak to the manager, she wouldn't even speak to me. You spend that kind of money on a hotel room,you would think the manager would at least talk to you. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Quality Suites N, General Manager at Quality Suites North, responded to this reviewResponded July 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 15, 2015</t>
+  </si>
+  <si>
+    <t>We stayed for 7 days. We also had 5 kids with us, $1,150 later,we were told we had to check out and wait to see if they had any rooms for us to extend our stay. The fact we were paying in advance didn't matter. The manager wasn't available when I was talking to the girl at the desk. Went back upstairs and called down to speak to the manager, she wouldn't even speak to me. You spend that kind of money on a hotel room,you would think the manager would at least talk to you. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107776-r284470834-Quality_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>284470834</t>
+  </si>
+  <si>
+    <t>06/30/2015</t>
+  </si>
+  <si>
+    <t>Chamanana</t>
+  </si>
+  <si>
+    <t>Room with 2 queen beds and half wall separator for seating area. Spacious. Comfy beds. Bathroom is small, but ample counter space. We moved coffee maker to desk to make more room in bathroom. Complimentary breakfast was disappointing. We asked for extra coffee for the room and they were out!!! Our room was not cleaned - when we asked about it, we were told housekeepers had left for the day.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Quality Suites N, General Manager at Quality Suites North, responded to this reviewResponded July 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 7, 2015</t>
+  </si>
+  <si>
+    <t>Room with 2 queen beds and half wall separator for seating area. Spacious. Comfy beds. Bathroom is small, but ample counter space. We moved coffee maker to desk to make more room in bathroom. Complimentary breakfast was disappointing. We asked for extra coffee for the room and they were out!!! Our room was not cleaned - when we asked about it, we were told housekeepers had left for the day.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107776-r283342627-Quality_Suites_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -452,9 +660,6 @@
     <t>We got checked in late after they locked the door at 2200.  The front desk lady was not the nicest in the world.  We stayed in room 112.  There was hard dog food on the floor that hadn't been cleaned up.  We could hear everything on the second floor as well.  I don't know if it was just noisy rude occupants or just normal foot traffic.  Either way it was annoying.  When I stay in this area again I will probably go somewhere else but if I had to stay here I would.</t>
   </si>
   <si>
-    <t>June 2015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107776-r270819077-Quality_Suites_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -491,6 +696,54 @@
     <t>January 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107776-r250110705-Quality_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>250110705</t>
+  </si>
+  <si>
+    <t>01/19/2015</t>
+  </si>
+  <si>
+    <t>Polite &amp; Friendly Late-Night Staff</t>
+  </si>
+  <si>
+    <t>Stayed here about 7 months back...would have written a review sooner but life got very busy &amp; by the time I had time to sit down &amp; write a review the review window on choicehotels.com was expired. Anyway, I was new to Houston &amp; lost trying to find the place late at night. I called the hotel &amp; a lovely young lady named Khrystianne Kelley (not sure if I spelled it right) was kind enough not only to give me directions but to stay on the phone with me the entire drive there, giving me step by step directions by local landmarks until I found it. I was extremely grateful. Once I got there she cordially welcomed me &amp; quickly checked me into a decent room. Phenomenal customer service by Khrystianne, I wish I had been able to write this review sooner, this lady should be promoted. Did I mention she was lovely? Stunningly gorgeous.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Stayed here about 7 months back...would have written a review sooner but life got very busy &amp; by the time I had time to sit down &amp; write a review the review window on choicehotels.com was expired. Anyway, I was new to Houston &amp; lost trying to find the place late at night. I called the hotel &amp; a lovely young lady named Khrystianne Kelley (not sure if I spelled it right) was kind enough not only to give me directions but to stay on the phone with me the entire drive there, giving me step by step directions by local landmarks until I found it. I was extremely grateful. Once I got there she cordially welcomed me &amp; quickly checked me into a decent room. Phenomenal customer service by Khrystianne, I wish I had been able to write this review sooner, this lady should be promoted. Did I mention she was lovely? Stunningly gorgeous.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107776-r235409444-Quality_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>235409444</t>
+  </si>
+  <si>
+    <t>10/20/2014</t>
+  </si>
+  <si>
+    <t>great place to stay!!!</t>
+  </si>
+  <si>
+    <t>my family and friends arrived at the hotel Friday afternoon 10/17/14. easy access off and onto I45 plenty of parking. beautiful entrance into the hotel with the curved staircase to the second floor. Hotel was very clean and the free breakfast was amazing with eggs, biscuits, sausage, cereal, waffles, and coffee 24/7. But the really great part was the staff Veronica the manager was super nice and Natalie who worked the 2nd shift and always greeted me by name and Tina who helped with my request for a ground floor room. Will definitely stay again!thanks to all the staff!!tmd63_12!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Quality Suites N, General Manager at Quality Suites North, responded to this reviewResponded October 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 22, 2014</t>
+  </si>
+  <si>
+    <t>my family and friends arrived at the hotel Friday afternoon 10/17/14. easy access off and onto I45 plenty of parking. beautiful entrance into the hotel with the curved staircase to the second floor. Hotel was very clean and the free breakfast was amazing with eggs, biscuits, sausage, cereal, waffles, and coffee 24/7. But the really great part was the staff Veronica the manager was super nice and Natalie who worked the 2nd shift and always greeted me by name and Tina who helped with my request for a ground floor room. Will definitely stay again!thanks to all the staff!!tmd63_12!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107776-r208855438-Quality_Suites_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -506,9 +759,6 @@
     <t>Husband here for a week class.  We requested a higher floor and quiet room on arrival and the desk staff was responsive. The room is clean and has a living room seating area so is comfortable for me during the day. The staff is friendly and helpful. I was late for bkfst yesterday and was able to obtain one from the kind breakfast lady. The pool area is clean.The housekeeper is friendly and quickly provided the extras that I requested. The hotel is adjacent to I 45 and the I 45 service road, so restaurants et al are easily accessible and Spring and Woodlands an easy drive up the highway. The desk ladies know the restaurants well and offered us perfect suggestions.  The staff make this place a comfortable environment for a week stay.MoreShow less</t>
   </si>
   <si>
-    <t>June 2014</t>
-  </si>
-  <si>
     <t>Quality Suites N, Manager at Quality Suites North, responded to this reviewResponded July 25, 2014</t>
   </si>
   <si>
@@ -566,6 +816,48 @@
     <t>Stayed here for one night when we were up in the Spring, TX area to buy a new vehicle.  What we liked about this hotel was  the room was spacious and very clean.  Another plus is it has easy access to Interstate 45 from this location.  If our usual hotel in Houston is booked we would have no problem with this being our next choice.  The property is gated with sufficient parking.  When we stayed here there was some maintenance being done in the area by the power company which affected this hotel.  The hotel had information about this posted on every door making the patrons aware of the issue.  Since it was the start of a weekend we didn't have an issue with that.Besides the room being clean it really smelled really nice.  The continental breakfast was good with sufficient hours to cover the late sleepers.  Check-in and out was a snap and the attention to detail was a very welcome addition.  I cannot remember if the couch was a pull-out.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107776-r202059792-Quality_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>202059792</t>
+  </si>
+  <si>
+    <t>04/21/2014</t>
+  </si>
+  <si>
+    <t>Super staff!!!</t>
+  </si>
+  <si>
+    <t>Hotel accommodations were clean and fairly up to date. Room was bright and clean, water pressure was good, bed was comfy. Morning breakfast bar was good variety and coffee was on 24/7. But the real star here is the staff. Not just one in particular but EVERYONE we talked to was super friendly,  helpful and went out of their way to make sure you were ok, had everything you needed, etc. We stayed here for work but these guys help you feel like you are on vacation! Thank  you!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Hotel accommodations were clean and fairly up to date. Room was bright and clean, water pressure was good, bed was comfy. Morning breakfast bar was good variety and coffee was on 24/7. But the real star here is the staff. Not just one in particular but EVERYONE we talked to was super friendly,  helpful and went out of their way to make sure you were ok, had everything you needed, etc. We stayed here for work but these guys help you feel like you are on vacation! Thank  you!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107776-r199673130-Quality_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>199673130</t>
+  </si>
+  <si>
+    <t>04/02/2014</t>
+  </si>
+  <si>
+    <t>People make the difference</t>
+  </si>
+  <si>
+    <t>Kristian talked me into the location at 2:00am, staying on the phone with me until I arrived.  That was above and beyond the requirements of the job, and I appreciated her assistance and positive attitude.  The next morning, Mario went the extra mile to assist me in getting directions to my place of business. Thanks to Mario, I had a great start to a very good day.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Kristian talked me into the location at 2:00am, staying on the phone with me until I arrived.  That was above and beyond the requirements of the job, and I appreciated her assistance and positive attitude.  The next morning, Mario went the extra mile to assist me in getting directions to my place of business. Thanks to Mario, I had a great start to a very good day.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107776-r197225820-Quality_Suites_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -635,6 +927,48 @@
     <t>I stayed here with my husband while he was here for work. I spent the day in the hotel while he was away. The room is spacious and CLEAN! The beds are super comfy. The breakfast is alright, nothing spectacular, but there are a lot of restaurants close by. We got great service from the moment we walked in. Veronica, the woman at the desk, was very knowledgeable about restaurants and gave great directions and recommendations. I was flying out while my husband was at work and the front desk made arrangements for the cab for me. I would definitely recommend this hotel, and if we're ever back in Houston, I would stay here.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107776-r169341472-Quality_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>169341472</t>
+  </si>
+  <si>
+    <t>07/27/2013</t>
+  </si>
+  <si>
+    <t>Nice hotel on the outskirts of Houston</t>
+  </si>
+  <si>
+    <t>I was here during my business trip in Houston. Very nice hotel if you plan most of your day outside the hotel. I am saying this because it doesn't have restaurant, and the breakfast is just okay. Apart from meal related things, the hotel is just great. Huge room, just perfect for rest. There is coin operated washing/drying machine. Gym and swimming are also there. Not big, but enough to keep you in shape and relax during hot summer. As for meal, well, there are many restaurants and fast food places around, just walking distance from the hotel. So my recommendation, this is good hotel if you do business trip around this area. Not so good if you plan to go to downtown Houston, coz it's far, it's like 50 bucks to go to city center with taxi during quiet hours, or two hours plus with bus.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>I was here during my business trip in Houston. Very nice hotel if you plan most of your day outside the hotel. I am saying this because it doesn't have restaurant, and the breakfast is just okay. Apart from meal related things, the hotel is just great. Huge room, just perfect for rest. There is coin operated washing/drying machine. Gym and swimming are also there. Not big, but enough to keep you in shape and relax during hot summer. As for meal, well, there are many restaurants and fast food places around, just walking distance from the hotel. So my recommendation, this is good hotel if you do business trip around this area. Not so good if you plan to go to downtown Houston, coz it's far, it's like 50 bucks to go to city center with taxi during quiet hours, or two hours plus with bus.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107776-r165259486-Quality_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>165259486</t>
+  </si>
+  <si>
+    <t>06/25/2013</t>
+  </si>
+  <si>
+    <t>quite rooms excellent staff</t>
+  </si>
+  <si>
+    <t>Stayed here for 4 nights... picked this as close to airport and good reviews.. first night was close to ice and vending machines which were noisey but we were able to move rooms the next day no problems. good resturants nearby were a bonus.. highly recommend the Lasagna 111 resturant doesn't look good for the outside but the food and inside is terrific.Mario at Motel made sure everthing was up to scratch and we were looked after..MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>Stayed here for 4 nights... picked this as close to airport and good reviews.. first night was close to ice and vending machines which were noisey but we were able to move rooms the next day no problems. good resturants nearby were a bonus.. highly recommend the Lasagna 111 resturant doesn't look good for the outside but the food and inside is terrific.Mario at Motel made sure everthing was up to scratch and we were looked after..More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107776-r161575995-Quality_Suites_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -689,6 +1023,42 @@
     <t>February 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107776-r151023136-Quality_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>151023136</t>
+  </si>
+  <si>
+    <t>01/30/2013</t>
+  </si>
+  <si>
+    <t>What a great Stay</t>
+  </si>
+  <si>
+    <t>I wanted to send a quick message and tell you thank you so much for working so much with us during this time of craziness.  We really appreciate your help and you were truly a blessing.  Your hotel was more than accommodating and even with the all the construction that was going on in your hotel was more than accommodating.  I interacted with three different members of your team and each were exceptionally professional.  We greatly appreciate it.  We were in Houston during a very stressful time and each member of the staff we worked with went out of their way to accomodate.  I even asked just for direction to the dumpster and someone wouldnt let me throw my own garbage away, they wanted to do it for me.  A great stay(and I stay in 4-5 hotels a month for work).  If I am ever in North Houston again, I will stay here:) Thank you!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>I wanted to send a quick message and tell you thank you so much for working so much with us during this time of craziness.  We really appreciate your help and you were truly a blessing.  Your hotel was more than accommodating and even with the all the construction that was going on in your hotel was more than accommodating.  I interacted with three different members of your team and each were exceptionally professional.  We greatly appreciate it.  We were in Houston during a very stressful time and each member of the staff we worked with went out of their way to accomodate.  I even asked just for direction to the dumpster and someone wouldnt let me throw my own garbage away, they wanted to do it for me.  A great stay(and I stay in 4-5 hotels a month for work).  If I am ever in North Houston again, I will stay here:) Thank you!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107776-r150594294-Quality_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>150594294</t>
+  </si>
+  <si>
+    <t>01/25/2013</t>
+  </si>
+  <si>
+    <t>Mario</t>
+  </si>
+  <si>
+    <t>Mario at the front desk does a good job, he directed me to places around town and I noticed he is nice to everyone who walks into the hotel. The older housekeeper with the short hair is nice also. the room I stayed in was clean it did smell a little. I opened the window and turned on the a/c. The shower head did not spray water very well it needs to be replaced.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107776-r147999821-Quality_Suites_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -740,6 +1110,39 @@
     <t>I highly recommend this hotel. My husband  &amp; I travel a lot due to his line of work and have had a wide variety of experiences in hotels. This one is very clean,quiet and the staff is wonderful. Not just at the front desk. There is also easy access to many choices of restaurants and shopping.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107776-r144946712-Quality_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>144946712</t>
+  </si>
+  <si>
+    <t>11/08/2012</t>
+  </si>
+  <si>
+    <t>Quietest Hotel in Houston!</t>
+  </si>
+  <si>
+    <t>I love this hotel!  I have stayed there for business at least once a month over the past 2 years.  The hotel is clean, comfortable and quiet!  I sleep better there than at my own house.  The staff is very friendly and accomodating.  I highly recommend this hotel.</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107776-r144608274-Quality_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>144608274</t>
+  </si>
+  <si>
+    <t>11/05/2012</t>
+  </si>
+  <si>
+    <t>Excellent value and condition</t>
+  </si>
+  <si>
+    <t>Clean and spacious room, great breakfast, staff was excellent.  Clean and spacious room, great breakfast, staff was excellent. Clean and spacious room, great breakfast, staff was excellent.  Clean and spacious room, great breakfast, staff was excellent.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107776-r143581347-Quality_Suites_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -755,9 +1158,6 @@
     <t>While the hotel accommodations and location are ideal, the staff lacks manners and professionalism. The front desk needed my credit card for an authorization and instead of waiting until the morning to get it, the night auditor banged on my door at 11:40pm, waking me up from a dead sleep. I was in my pajamas and not clothed properly to receive a guest. I have never had this kind of incident before at a hotel and I'm fuming. I'm so upset I'm thinking about changing hotels. This is definitely not the "quality" I was expecting.</t>
   </si>
   <si>
-    <t>October 2012</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107776-r138940406-Quality_Suites_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -798,6 +1198,45 @@
   </si>
   <si>
     <t>Our check-in was quick and the employees very courteous.  Our room was immaculate and extremely comfortable.   Our bed was one of the most comfortable I've slept in.  In fact, my husband said that was the best night's sleep he had gotten in a very long time.  An information card beside the bed said the sheets were 200 thread count- but they were much more luxurious than some 500 thread count sheets that we have on our bed at home.  The hotel was very quiet.  Breakfast the next morning consisted yogurt, two kinds of cereal, make your own waffles, a few pastries and stuff to make a sausage/egg biscuit.  I don't know about the quality of those- since there weren't anymore biscuits.  I was disappointed with the food since other hotels we've stayed at in this chain had a bit better breakfasts.  However, we were there for the room and it was above and beyond our expectations- so I can't really dock anything for the food.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107776-r124771997-Quality_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>124771997</t>
+  </si>
+  <si>
+    <t>02/18/2012</t>
+  </si>
+  <si>
+    <t>1st Stay - Excellent Experience</t>
+  </si>
+  <si>
+    <t>First time to stay in this hotel.  The staff was friendly &amp; efficient, the room nice and clean.  Plenty of towels, etc.  The breakfast was standard, but nice.  The location is convenient to north Houston, and the hotel right off I-45.  It is somewhat difficult to see from the I-45 service road.  Overall, a pleasant place and I would stay there again on  a trip to Houston.</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107776-r113761172-Quality_Suites_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>113761172</t>
+  </si>
+  <si>
+    <t>06/15/2011</t>
+  </si>
+  <si>
+    <t>OK but had some concerns</t>
+  </si>
+  <si>
+    <t>The room was very spacious and clean. The beds comfortable. In the course of my stay I interacted with 2 staff members. One was very helpful, friendly and welcoming. The other defensive.  My family and I left out of a side door to go to dinner. A sign -"Please make sure door is completely closed" was taped to it and it was ajar, all I had to do was push and go out. When trying to close it behind me I couldn't because the board is rotted and off balance it wouldn't latch. The door would not close at all. Anyone could just walk in off the street. Secondly, the knobs to the AC were missing and the panel half on. Thankfully the room temperature was OK but about 2:00 am became stuffy. At checkout I explain this to the staff member. My biggest reason was to let them know it was how we found it not how we left it. At which they became defensive. I was told there was probably a thermostat behind the curtain...?  And if I had looked I would have found a card stating that on the AC.  It was not there. Not sure if they were over zealous in trying to reassure me about their hotel or being defensive. But I left feeling uncomfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>The room was very spacious and clean. The beds comfortable. In the course of my stay I interacted with 2 staff members. One was very helpful, friendly and welcoming. The other defensive.  My family and I left out of a side door to go to dinner. A sign -"Please make sure door is completely closed" was taped to it and it was ajar, all I had to do was push and go out. When trying to close it behind me I couldn't because the board is rotted and off balance it wouldn't latch. The door would not close at all. Anyone could just walk in off the street. Secondly, the knobs to the AC were missing and the panel half on. Thankfully the room temperature was OK but about 2:00 am became stuffy. At checkout I explain this to the staff member. My biggest reason was to let them know it was how we found it not how we left it. At which they became defensive. I was told there was probably a thermostat behind the curtain...?  And if I had looked I would have found a card stating that on the AC.  It was not there. Not sure if they were over zealous in trying to reassure me about their hotel or being defensive. But I left feeling uncomfortable.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107776-r72716303-Quality_Suites_North-Houston_Texas.html</t>
@@ -1383,7 +1822,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1400,10 +1839,14 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s"/>
-      <c r="X2" t="s"/>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -1419,7 +1862,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -1428,32 +1871,38 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
-      </c>
-      <c r="P3" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
@@ -1476,7 +1925,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1485,43 +1934,39 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O4" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
-      <c r="S4" t="n">
-        <v>2</v>
-      </c>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>1</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -1537,7 +1982,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1546,25 +1991,25 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O5" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1578,7 +2023,7 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
@@ -1594,7 +2039,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1603,39 +2048,43 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O6" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
+      <c r="S6" t="n">
+        <v>2</v>
+      </c>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
@@ -1651,52 +2100,48 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
         <v>82</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
-        <v>83</v>
-      </c>
-      <c r="J7" t="s">
-        <v>84</v>
-      </c>
-      <c r="K7" t="s">
-        <v>85</v>
-      </c>
-      <c r="L7" t="s">
-        <v>86</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>81</v>
-      </c>
       <c r="O7" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="P7" t="s"/>
-      <c r="Q7" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>5</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8">
@@ -1712,7 +2157,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -1721,43 +2166,43 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O8" t="s">
-        <v>93</v>
-      </c>
-      <c r="P8" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s">
-        <v>94</v>
-      </c>
-      <c r="X8" t="s">
-        <v>95</v>
-      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9">
@@ -1773,34 +2218,34 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" t="s">
         <v>97</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="K9" t="s">
         <v>98</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
         <v>99</v>
       </c>
-      <c r="K9" t="s">
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>93</v>
+      </c>
+      <c r="O9" t="s">
         <v>100</v>
-      </c>
-      <c r="L9" t="s">
-        <v>101</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>102</v>
-      </c>
-      <c r="O9" t="s">
-        <v>53</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1811,14 +2256,10 @@
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
-        <v>103</v>
-      </c>
-      <c r="X9" t="s">
-        <v>95</v>
-      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10">
@@ -1834,34 +2275,34 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" t="s">
         <v>105</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="L10" t="s">
         <v>106</v>
       </c>
-      <c r="J10" t="s">
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
         <v>107</v>
       </c>
-      <c r="K10" t="s">
-        <v>108</v>
-      </c>
-      <c r="L10" t="s">
-        <v>109</v>
-      </c>
-      <c r="M10" t="n">
-        <v>3</v>
-      </c>
-      <c r="N10" t="s">
-        <v>102</v>
-      </c>
       <c r="O10" t="s">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1872,14 +2313,10 @@
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s">
-        <v>111</v>
-      </c>
-      <c r="X10" t="s">
-        <v>112</v>
-      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11">
@@ -1895,7 +2332,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -1904,49 +2341,43 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="J11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="K11" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L11" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="O11" t="s">
         <v>53</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="n">
-        <v>2</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s">
-        <v>120</v>
-      </c>
-      <c r="X11" t="s">
-        <v>121</v>
-      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12">
@@ -1962,7 +2393,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -1971,34 +2402,34 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="J12" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="K12" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="L12" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="O12" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
       </c>
-      <c r="Q12" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
         <v>5</v>
@@ -2009,7 +2440,7 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13">
@@ -2025,7 +2456,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2034,49 +2465,43 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="J13" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="K13" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="L13" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="O13" t="s">
-        <v>60</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q13" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
       <c r="R13" t="s"/>
-      <c r="S13" t="n">
-        <v>1</v>
-      </c>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s">
-        <v>136</v>
-      </c>
-      <c r="X13" t="s">
-        <v>137</v>
-      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14">
@@ -2092,7 +2517,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2101,25 +2526,25 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="J14" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="K14" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="L14" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="M14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="O14" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2130,10 +2555,14 @@
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
+      <c r="W14" t="s">
+        <v>131</v>
+      </c>
+      <c r="X14" t="s">
+        <v>132</v>
+      </c>
       <c r="Y14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15">
@@ -2149,7 +2578,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2158,43 +2587,43 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="J15" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="K15" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="L15" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="P15" t="s"/>
-      <c r="Q15" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>5</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>140</v>
+      </c>
+      <c r="X15" t="s">
+        <v>132</v>
+      </c>
       <c r="Y15" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16">
@@ -2210,7 +2639,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2219,45 +2648,43 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="J16" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="K16" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="L16" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
-      <c r="R16" t="n">
-        <v>4</v>
-      </c>
-      <c r="S16" t="n">
-        <v>5</v>
-      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>5</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>147</v>
+      </c>
+      <c r="X16" t="s">
+        <v>148</v>
+      </c>
       <c r="Y16" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17">
@@ -2273,7 +2700,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2282,53 +2709,43 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="J17" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="K17" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="L17" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>3</v>
-      </c>
-      <c r="R17" t="n">
-        <v>3</v>
-      </c>
-      <c r="S17" t="n">
-        <v>3</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>4</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="X17" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="Y17" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18">
@@ -2344,7 +2761,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2353,53 +2770,43 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="J18" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="K18" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="L18" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="M18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="O18" t="s">
-        <v>110</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>3</v>
-      </c>
-      <c r="R18" t="n">
-        <v>3</v>
-      </c>
-      <c r="S18" t="n">
-        <v>2</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>3</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="X18" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="Y18" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19">
@@ -2415,7 +2822,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2424,53 +2831,49 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J19" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="K19" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="L19" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="O19" t="s">
-        <v>60</v>
-      </c>
-      <c r="P19" t="n">
-        <v>5</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="P19" t="s"/>
       <c r="Q19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R19" t="n">
-        <v>5</v>
-      </c>
-      <c r="S19" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
+        <v>170</v>
+      </c>
+      <c r="X19" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y19" t="s">
         <v>172</v>
-      </c>
-      <c r="X19" t="s">
-        <v>173</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="20">
@@ -2486,7 +2889,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2495,22 +2898,22 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="J20" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="K20" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="L20" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="O20" t="s">
         <v>53</v>
@@ -2519,29 +2922,21 @@
         <v>5</v>
       </c>
       <c r="Q20" t="n">
-        <v>4</v>
-      </c>
-      <c r="R20" t="n">
-        <v>4</v>
-      </c>
-      <c r="S20" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s">
-        <v>188</v>
-      </c>
-      <c r="X20" t="s">
-        <v>189</v>
-      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21">
@@ -2557,7 +2952,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2566,49 +2961,49 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="J21" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="K21" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="L21" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
-      </c>
-      <c r="N21" t="s"/>
-      <c r="O21" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>185</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
       <c r="P21" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>4</v>
-      </c>
-      <c r="R21" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
       <c r="S21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="X21" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="Y21" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22">
@@ -2624,7 +3019,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2633,53 +3028,43 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="J22" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="K22" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="L22" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="O22" t="s">
-        <v>110</v>
-      </c>
-      <c r="P22" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>5</v>
-      </c>
-      <c r="R22" t="n">
-        <v>4</v>
-      </c>
-      <c r="S22" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>5</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
+        <v>195</v>
+      </c>
+      <c r="X22" t="s">
         <v>196</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Y22" t="s">
         <v>197</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="23">
@@ -2695,7 +3080,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2704,49 +3089,43 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="J23" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="K23" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="L23" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="O23" t="s">
         <v>53</v>
       </c>
-      <c r="P23" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>3</v>
-      </c>
-      <c r="R23" t="n">
-        <v>3</v>
-      </c>
-      <c r="S23" t="n">
-        <v>5</v>
-      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>3</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
+      <c r="W23" t="s">
+        <v>204</v>
+      </c>
+      <c r="X23" t="s">
+        <v>205</v>
+      </c>
       <c r="Y23" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24">
@@ -2762,56 +3141,48 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
+        <v>207</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>208</v>
+      </c>
+      <c r="J24" t="s">
+        <v>209</v>
+      </c>
+      <c r="K24" t="s">
+        <v>210</v>
+      </c>
+      <c r="L24" t="s">
         <v>211</v>
       </c>
-      <c r="G24" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" t="s">
-        <v>212</v>
-      </c>
-      <c r="J24" t="s">
-        <v>213</v>
-      </c>
-      <c r="K24" t="s">
-        <v>214</v>
-      </c>
-      <c r="L24" t="s">
-        <v>215</v>
-      </c>
       <c r="M24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="P24" t="s"/>
-      <c r="Q24" t="n">
-        <v>3</v>
-      </c>
-      <c r="R24" t="n">
-        <v>5</v>
-      </c>
-      <c r="S24" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>5</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25">
@@ -2827,47 +3198,41 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
+        <v>212</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>213</v>
+      </c>
+      <c r="J25" t="s">
+        <v>214</v>
+      </c>
+      <c r="K25" t="s">
+        <v>215</v>
+      </c>
+      <c r="L25" t="s">
+        <v>216</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
         <v>217</v>
       </c>
-      <c r="G25" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" t="s">
-        <v>47</v>
-      </c>
-      <c r="I25" t="s">
-        <v>218</v>
-      </c>
-      <c r="J25" t="s">
-        <v>219</v>
-      </c>
-      <c r="K25" t="s">
-        <v>220</v>
-      </c>
-      <c r="L25" t="s">
-        <v>221</v>
-      </c>
-      <c r="M25" t="n">
-        <v>5</v>
-      </c>
-      <c r="N25" t="s">
-        <v>222</v>
-      </c>
       <c r="O25" t="s">
-        <v>53</v>
-      </c>
-      <c r="P25" t="n">
-        <v>5</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="P25" t="s"/>
       <c r="Q25" t="n">
         <v>4</v>
       </c>
-      <c r="R25" t="n">
-        <v>5</v>
-      </c>
-      <c r="S25" t="n">
-        <v>5</v>
-      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
         <v>5</v>
@@ -2878,7 +3243,7 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26">
@@ -2894,50 +3259,46 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
+        <v>218</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>219</v>
+      </c>
+      <c r="J26" t="s">
+        <v>220</v>
+      </c>
+      <c r="K26" t="s">
+        <v>221</v>
+      </c>
+      <c r="L26" t="s">
+        <v>222</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
         <v>223</v>
       </c>
-      <c r="G26" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" t="s">
-        <v>224</v>
-      </c>
-      <c r="J26" t="s">
-        <v>225</v>
-      </c>
-      <c r="K26" t="s">
-        <v>226</v>
-      </c>
-      <c r="L26" t="s">
-        <v>227</v>
-      </c>
-      <c r="M26" t="n">
-        <v>5</v>
-      </c>
-      <c r="N26" t="s">
-        <v>228</v>
-      </c>
       <c r="O26" t="s">
-        <v>53</v>
-      </c>
-      <c r="P26" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>5</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
       <c r="R26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
       </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2945,7 +3306,7 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27">
@@ -2961,46 +3322,42 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
+        <v>224</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>225</v>
+      </c>
+      <c r="J27" t="s">
+        <v>226</v>
+      </c>
+      <c r="K27" t="s">
+        <v>227</v>
+      </c>
+      <c r="L27" t="s">
+        <v>228</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
         <v>229</v>
       </c>
-      <c r="G27" t="s">
-        <v>46</v>
-      </c>
-      <c r="H27" t="s">
-        <v>47</v>
-      </c>
-      <c r="I27" t="s">
-        <v>230</v>
-      </c>
-      <c r="J27" t="s">
-        <v>231</v>
-      </c>
-      <c r="K27" t="s">
-        <v>232</v>
-      </c>
-      <c r="L27" t="s">
-        <v>233</v>
-      </c>
-      <c r="M27" t="n">
-        <v>5</v>
-      </c>
-      <c r="N27" t="s">
-        <v>234</v>
-      </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="P27" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>5</v>
-      </c>
-      <c r="R27" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
       <c r="S27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
@@ -3012,7 +3369,7 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28">
@@ -3028,41 +3385,37 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
+        <v>231</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>232</v>
+      </c>
+      <c r="J28" t="s">
+        <v>233</v>
+      </c>
+      <c r="K28" t="s">
+        <v>234</v>
+      </c>
+      <c r="L28" t="s">
         <v>235</v>
       </c>
-      <c r="G28" t="s">
-        <v>46</v>
-      </c>
-      <c r="H28" t="s">
-        <v>47</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
         <v>236</v>
       </c>
-      <c r="J28" t="s">
-        <v>237</v>
-      </c>
-      <c r="K28" t="s">
-        <v>238</v>
-      </c>
-      <c r="L28" t="s">
-        <v>239</v>
-      </c>
-      <c r="M28" t="n">
-        <v>5</v>
-      </c>
-      <c r="N28" t="s">
-        <v>234</v>
-      </c>
       <c r="O28" t="s">
-        <v>53</v>
-      </c>
-      <c r="P28" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>5</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
       <c r="R28" t="n">
         <v>5</v>
       </c>
@@ -3076,8 +3429,12 @@
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
+      <c r="W28" t="s">
+        <v>237</v>
+      </c>
+      <c r="X28" t="s">
+        <v>238</v>
+      </c>
       <c r="Y28" t="s">
         <v>239</v>
       </c>
@@ -3116,37 +3473,41 @@
         <v>244</v>
       </c>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="P29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
+      <c r="W29" t="s">
+        <v>245</v>
+      </c>
+      <c r="X29" t="s">
+        <v>246</v>
+      </c>
       <c r="Y29" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30">
@@ -3162,7 +3523,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3171,37 +3532,37 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="J30" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K30" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L30" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>253</v>
+      </c>
+      <c r="O30" t="s">
+        <v>94</v>
+      </c>
+      <c r="P30" t="n">
         <v>3</v>
       </c>
-      <c r="N30" t="s">
-        <v>251</v>
-      </c>
-      <c r="O30" t="s">
-        <v>53</v>
-      </c>
-      <c r="P30" t="n">
-        <v>5</v>
-      </c>
       <c r="Q30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
@@ -3210,10 +3571,14 @@
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
+      <c r="W30" t="s">
+        <v>254</v>
+      </c>
+      <c r="X30" t="s">
+        <v>255</v>
+      </c>
       <c r="Y30" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31">
@@ -3229,7 +3594,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3238,22 +3603,22 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="J31" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="K31" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="L31" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="O31" t="s">
         <v>53</v>
@@ -3277,10 +3642,14 @@
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
+      <c r="W31" t="s">
+        <v>254</v>
+      </c>
+      <c r="X31" t="s">
+        <v>255</v>
+      </c>
       <c r="Y31" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32">
@@ -3296,7 +3665,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3305,33 +3674,37 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="J32" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="K32" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="L32" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
-      <c r="N32" t="s"/>
-      <c r="O32" t="s"/>
+      <c r="N32" t="s">
+        <v>269</v>
+      </c>
+      <c r="O32" t="s">
+        <v>69</v>
+      </c>
       <c r="P32" t="n">
         <v>5</v>
       </c>
       <c r="Q32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R32" t="n">
         <v>4</v>
       </c>
       <c r="S32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
@@ -3340,10 +3713,14 @@
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
+      <c r="W32" t="s">
+        <v>254</v>
+      </c>
+      <c r="X32" t="s">
+        <v>255</v>
+      </c>
       <c r="Y32" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33">
@@ -3359,7 +3736,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3368,27 +3745,31 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="J33" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="K33" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="L33" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
-      <c r="N33" t="s"/>
-      <c r="O33" t="s"/>
+      <c r="N33" t="s">
+        <v>276</v>
+      </c>
+      <c r="O33" t="s">
+        <v>69</v>
+      </c>
       <c r="P33" t="n">
         <v>5</v>
       </c>
       <c r="Q33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R33" t="n">
         <v>3</v>
@@ -3403,10 +3784,14 @@
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
+      <c r="W33" t="s">
+        <v>245</v>
+      </c>
+      <c r="X33" t="s">
+        <v>246</v>
+      </c>
       <c r="Y33" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="34">
@@ -3422,7 +3807,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3431,28 +3816,28 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="J34" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="K34" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="L34" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="M34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="P34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q34" t="n">
         <v>4</v>
@@ -3461,19 +3846,1495 @@
         <v>4</v>
       </c>
       <c r="S34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
+      <c r="W34" t="s">
+        <v>284</v>
+      </c>
+      <c r="X34" t="s">
+        <v>285</v>
+      </c>
       <c r="Y34" t="s">
-        <v>276</v>
+        <v>286</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>36197</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>287</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>288</v>
+      </c>
+      <c r="J35" t="s">
+        <v>289</v>
+      </c>
+      <c r="K35" t="s">
+        <v>290</v>
+      </c>
+      <c r="L35" t="s">
+        <v>291</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>292</v>
+      </c>
+      <c r="X35" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>36197</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>295</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>296</v>
+      </c>
+      <c r="J36" t="s">
+        <v>297</v>
+      </c>
+      <c r="K36" t="s">
+        <v>298</v>
+      </c>
+      <c r="L36" t="s">
+        <v>299</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>262</v>
+      </c>
+      <c r="O36" t="s">
+        <v>94</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>292</v>
+      </c>
+      <c r="X36" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36197</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>301</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>302</v>
+      </c>
+      <c r="J37" t="s">
+        <v>303</v>
+      </c>
+      <c r="K37" t="s">
+        <v>304</v>
+      </c>
+      <c r="L37" t="s">
+        <v>305</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>306</v>
+      </c>
+      <c r="O37" t="s">
+        <v>69</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>245</v>
+      </c>
+      <c r="X37" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36197</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>308</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>309</v>
+      </c>
+      <c r="J38" t="s">
+        <v>310</v>
+      </c>
+      <c r="K38" t="s">
+        <v>311</v>
+      </c>
+      <c r="L38" t="s">
+        <v>312</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>313</v>
+      </c>
+      <c r="O38" t="s">
+        <v>94</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>245</v>
+      </c>
+      <c r="X38" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>36197</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>315</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>316</v>
+      </c>
+      <c r="J39" t="s">
+        <v>317</v>
+      </c>
+      <c r="K39" t="s">
+        <v>318</v>
+      </c>
+      <c r="L39" t="s">
+        <v>319</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>320</v>
+      </c>
+      <c r="O39" t="s">
+        <v>69</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>3</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>36197</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>321</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>322</v>
+      </c>
+      <c r="J40" t="s">
+        <v>323</v>
+      </c>
+      <c r="K40" t="s">
+        <v>324</v>
+      </c>
+      <c r="L40" t="s">
+        <v>325</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>326</v>
+      </c>
+      <c r="O40" t="s">
+        <v>69</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>36197</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>327</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>328</v>
+      </c>
+      <c r="J41" t="s">
+        <v>329</v>
+      </c>
+      <c r="K41" t="s">
+        <v>330</v>
+      </c>
+      <c r="L41" t="s">
+        <v>331</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>332</v>
+      </c>
+      <c r="O41" t="s">
+        <v>69</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>36197</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>333</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>334</v>
+      </c>
+      <c r="J42" t="s">
+        <v>335</v>
+      </c>
+      <c r="K42" t="s">
+        <v>336</v>
+      </c>
+      <c r="L42" t="s">
+        <v>337</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>338</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>36197</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>340</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>341</v>
+      </c>
+      <c r="J43" t="s">
+        <v>342</v>
+      </c>
+      <c r="K43" t="s">
+        <v>343</v>
+      </c>
+      <c r="L43" t="s">
+        <v>344</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>338</v>
+      </c>
+      <c r="O43" t="s">
+        <v>69</v>
+      </c>
+      <c r="P43" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S43" t="n">
+        <v>3</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>36197</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>345</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>346</v>
+      </c>
+      <c r="J44" t="s">
+        <v>347</v>
+      </c>
+      <c r="K44" t="s">
+        <v>348</v>
+      </c>
+      <c r="L44" t="s">
+        <v>349</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>350</v>
+      </c>
+      <c r="O44" t="s">
+        <v>69</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>36197</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>351</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>352</v>
+      </c>
+      <c r="J45" t="s">
+        <v>353</v>
+      </c>
+      <c r="K45" t="s">
+        <v>354</v>
+      </c>
+      <c r="L45" t="s">
+        <v>355</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>356</v>
+      </c>
+      <c r="O45" t="s">
+        <v>69</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>36197</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>357</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>358</v>
+      </c>
+      <c r="J46" t="s">
+        <v>359</v>
+      </c>
+      <c r="K46" t="s">
+        <v>360</v>
+      </c>
+      <c r="L46" t="s">
+        <v>361</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>356</v>
+      </c>
+      <c r="O46" t="s">
+        <v>69</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>36197</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>362</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>363</v>
+      </c>
+      <c r="J47" t="s">
+        <v>364</v>
+      </c>
+      <c r="K47" t="s">
+        <v>365</v>
+      </c>
+      <c r="L47" t="s">
+        <v>366</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>367</v>
+      </c>
+      <c r="O47" t="s">
+        <v>69</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>36197</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>368</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>369</v>
+      </c>
+      <c r="J48" t="s">
+        <v>370</v>
+      </c>
+      <c r="K48" t="s">
+        <v>371</v>
+      </c>
+      <c r="L48" t="s">
+        <v>372</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>356</v>
+      </c>
+      <c r="O48" t="s">
+        <v>69</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>36197</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>373</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>374</v>
+      </c>
+      <c r="J49" t="s">
+        <v>375</v>
+      </c>
+      <c r="K49" t="s">
+        <v>376</v>
+      </c>
+      <c r="L49" t="s">
+        <v>377</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s">
+        <v>367</v>
+      </c>
+      <c r="O49" t="s">
+        <v>69</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>1</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>36197</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>378</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>379</v>
+      </c>
+      <c r="J50" t="s">
+        <v>380</v>
+      </c>
+      <c r="K50" t="s">
+        <v>381</v>
+      </c>
+      <c r="L50" t="s">
+        <v>382</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>383</v>
+      </c>
+      <c r="O50" t="s">
+        <v>69</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>3</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>36197</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>385</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>386</v>
+      </c>
+      <c r="J51" t="s">
+        <v>387</v>
+      </c>
+      <c r="K51" t="s">
+        <v>388</v>
+      </c>
+      <c r="L51" t="s">
+        <v>389</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>390</v>
+      </c>
+      <c r="O51" t="s">
+        <v>69</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>36197</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>392</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>393</v>
+      </c>
+      <c r="J52" t="s">
+        <v>394</v>
+      </c>
+      <c r="K52" t="s">
+        <v>395</v>
+      </c>
+      <c r="L52" t="s">
+        <v>396</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>397</v>
+      </c>
+      <c r="O52" t="s">
+        <v>100</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>36197</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>398</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>399</v>
+      </c>
+      <c r="J53" t="s">
+        <v>400</v>
+      </c>
+      <c r="K53" t="s">
+        <v>401</v>
+      </c>
+      <c r="L53" t="s">
+        <v>402</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>403</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>36197</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>405</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>406</v>
+      </c>
+      <c r="J54" t="s">
+        <v>407</v>
+      </c>
+      <c r="K54" t="s">
+        <v>408</v>
+      </c>
+      <c r="L54" t="s">
+        <v>409</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>36197</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>410</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>411</v>
+      </c>
+      <c r="J55" t="s">
+        <v>412</v>
+      </c>
+      <c r="K55" t="s">
+        <v>413</v>
+      </c>
+      <c r="L55" t="s">
+        <v>414</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s"/>
+      <c r="O55" t="s"/>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>36197</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>415</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>416</v>
+      </c>
+      <c r="J56" t="s">
+        <v>417</v>
+      </c>
+      <c r="K56" t="s">
+        <v>418</v>
+      </c>
+      <c r="L56" t="s">
+        <v>419</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s">
+        <v>420</v>
+      </c>
+      <c r="O56" t="s">
+        <v>69</v>
+      </c>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>421</v>
       </c>
     </row>
   </sheetData>
